--- a/t2dm-poltava/t2dm_poltava_framework.xlsx
+++ b/t2dm-poltava/t2dm_poltava_framework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/cascade-analyses/t2dm-poltava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CF2BED-214C-5D48-83FA-3C4FA303D97C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69CE204-E1B2-304E-A1D7-AB7C2E3DFC1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="1540" windowWidth="24380" windowHeight="12800" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -275,10 +275,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>Specify a comma separated list of compartment and characteristics to include e.g. 'dx,tx'</t>
         </r>
@@ -481,7 +480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="164">
   <si>
     <t>Name</t>
   </si>
@@ -934,6 +933,45 @@
   </si>
   <si>
     <t>txs_uncomp,txf_uncomp</t>
+  </si>
+  <si>
+    <t>num_deaths_vd</t>
+  </si>
+  <si>
+    <t>num_deaths_uncomp</t>
+  </si>
+  <si>
+    <t>num_deaths_other</t>
+  </si>
+  <si>
+    <t>Number of deaths (vascular damage)</t>
+  </si>
+  <si>
+    <t>Number of deaths (uncomplicated)</t>
+  </si>
+  <si>
+    <t>Number of deaths (other)</t>
+  </si>
+  <si>
+    <t>ch_vd</t>
+  </si>
+  <si>
+    <t>All people with vascular damage</t>
+  </si>
+  <si>
+    <t>ch_uncomp</t>
+  </si>
+  <si>
+    <t>All uncomplicated cases</t>
+  </si>
+  <si>
+    <t>sus*death_other</t>
+  </si>
+  <si>
+    <t>(unsc_vd+sc_vd+dx_vd+txs_vd+txf_vd)*death_vd</t>
+  </si>
+  <si>
+    <t>(unsc_uncomp+sc_uncomp+dx_uncomp+txs_uncomp+txf_uncomp)*death_other</t>
   </si>
 </sst>
 </file>
@@ -941,7 +979,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1007,7 +1045,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1028,7 +1066,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1036,7 +1074,14 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="39">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1795,7 +1840,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="37" priority="1">
+    <cfRule type="expression" dxfId="38" priority="1">
       <formula>AND(A1&lt;&gt;"",NOT(B1&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1812,7 +1857,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2092,17 +2137,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1 B3:B1048576">
-    <cfRule type="expression" dxfId="36" priority="5">
+    <cfRule type="expression" dxfId="37" priority="5">
       <formula>AND(A1&lt;&gt;"",NOT(B1&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C1048576">
-    <cfRule type="expression" dxfId="35" priority="8">
+    <cfRule type="expression" dxfId="36" priority="8">
       <formula>AND(#REF!&lt;&gt;"",NOT(C16&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="34" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>AND(A2&lt;&gt;"",NOT(B2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6382,27 +6427,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:O15">
-    <cfRule type="notContainsBlanks" dxfId="33" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="34" priority="5">
       <formula>LEN(TRIM(C3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B15">
-    <cfRule type="notContainsBlanks" dxfId="32" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="33" priority="4">
       <formula>LEN(TRIM(B3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:O2">
-    <cfRule type="notContainsBlanks" dxfId="31" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="3">
       <formula>LEN(TRIM(D2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="notContainsBlanks" dxfId="30" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="31" priority="2">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="notContainsBlanks" dxfId="29" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="30" priority="1">
       <formula>LEN(TRIM(C2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6416,10 +6461,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6623,22 +6668,50 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C12" s="6"/>
+      <c r="A12" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:B1048576">
-    <cfRule type="expression" dxfId="28" priority="8">
+  <conditionalFormatting sqref="B3:B12 B14:B1048576">
+    <cfRule type="expression" dxfId="29" priority="9">
       <formula>AND(A3&lt;&gt;"",NOT(B3&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E1048576">
-    <cfRule type="expression" dxfId="27" priority="10">
+    <cfRule type="expression" dxfId="28" priority="11">
       <formula>AND(#REF!&lt;&gt;"",NOT(E3&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="26" priority="2">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>AND(#REF!&lt;&gt;"",NOT(E2&lt;&gt;""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(A13&lt;&gt;"",NOT(B13&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -6660,12 +6733,12 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:G8"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="14.6640625" customWidth="1"/>
@@ -7039,29 +7112,71 @@
         <v>23</v>
       </c>
     </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="A17" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="G18" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -7070,6 +7185,7 @@
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -7109,116 +7225,106 @@
       <c r="F32" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B6 B1 B3 B16 B9:B11 B20:B1048576">
-    <cfRule type="expression" dxfId="25" priority="31">
+  <conditionalFormatting sqref="B6 B1 B3 B9:B11 B20:B1048576">
+    <cfRule type="expression" dxfId="26" priority="31">
       <formula>AND(A1&lt;&gt;"",NOT(B1&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6 I16 I20:I1048576 I9:I11">
-    <cfRule type="expression" dxfId="24" priority="36">
+  <conditionalFormatting sqref="I6 I20:I1048576 I9:I11">
+    <cfRule type="expression" dxfId="25" priority="36">
       <formula>AND(#REF!&lt;&gt;"",NOT(I6&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="23" priority="25">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>AND(#REF!&lt;&gt;"",NOT(I5&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="22" priority="22">
+    <cfRule type="expression" dxfId="23" priority="22">
       <formula>AND(A5&lt;&gt;"",NOT(B5&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B15">
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="22" priority="21">
       <formula>AND(A14&lt;&gt;"",NOT(B14&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B13">
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="21" priority="20">
       <formula>AND(A12&lt;&gt;"",NOT(B12&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="20" priority="19">
       <formula>AND(#REF!&lt;&gt;"",NOT(I3&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="18" priority="17">
+    <cfRule type="expression" dxfId="19" priority="17">
       <formula>AND(A2&lt;&gt;"",NOT(B2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="expression" dxfId="17" priority="16">
+    <cfRule type="expression" dxfId="18" priority="16">
       <formula>AND(#REF!&lt;&gt;"",NOT(I2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="16" priority="13">
+    <cfRule type="expression" dxfId="17" priority="13">
       <formula>AND(A4&lt;&gt;"",NOT(B4&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="15" priority="14">
+    <cfRule type="expression" dxfId="16" priority="14">
       <formula>AND(#REF!&lt;&gt;"",NOT(I4&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="15" priority="10">
       <formula>AND(A7&lt;&gt;"",NOT(B7&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="14" priority="11">
       <formula>AND(#REF!&lt;&gt;"",NOT(I8&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="13" priority="8">
       <formula>AND(A8&lt;&gt;"",NOT(B8&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="12" priority="7">
       <formula>AND(#REF!&lt;&gt;"",NOT(I18&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula>AND(#REF!&lt;&gt;"",NOT(I19&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="9" priority="6">
-      <formula>AND(A18&lt;&gt;"",NOT(B18&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="8" priority="4">
-      <formula>AND(A19&lt;&gt;"",NOT(B19&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>AND(#REF!&lt;&gt;"",NOT(I7&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H12:H16 H20:H1048576" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H20:H1048576 H12:H15" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"n,y"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C16 C20:C1048576" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C20:C1048576" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"probability, number, duration, proportion"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C17:C19 C4:C15" xr:uid="{00000000-0002-0000-0500-000002000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C4:C15 C19" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>",number,probability,duration,proportion"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H17:H19 H4:H11" xr:uid="{00000000-0002-0000-0500-000003000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H4:H11 H19" xr:uid="{00000000-0002-0000-0500-000003000000}">
       <formula1>"y,n"</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Code names must be unique" error="Parameter code names must be unique" sqref="A16 A20:A1048576" xr:uid="{00000000-0002-0000-0500-000004000000}">
-      <formula1>COUNTIF(A:A,A16)&lt;2</formula1>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Code names must be unique" error="Parameter code names must be unique" sqref="A19:A1048576 B19" xr:uid="{00000000-0002-0000-0500-000004000000}">
+      <formula1>COUNTIF(A:A,A19)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/t2dm-poltava/t2dm_poltava_framework.xlsx
+++ b/t2dm-poltava/t2dm_poltava_framework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/cascade-analyses/t2dm-poltava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69CE204-E1B2-304E-A1D7-AB7C2E3DFC1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112887B6-E14F-B640-A991-2EBFF70F96A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1540" windowWidth="24380" windowHeight="12800" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="1540" windowWidth="24380" windowHeight="12800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -90,10 +90,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>The 'Display name' will label the compartment on plots, so it should be descriptive e.g. 'Susceptible'</t>
         </r>
@@ -480,7 +479,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="164">
   <si>
     <t>Name</t>
   </si>
@@ -1074,21 +1073,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="37">
     <dxf>
       <fill>
         <patternFill>
@@ -1840,7 +1825,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="38" priority="1">
+    <cfRule type="expression" dxfId="36" priority="1">
       <formula>AND(A1&lt;&gt;"",NOT(B1&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1857,7 +1842,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1972,8 +1957,12 @@
       <c r="D6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
@@ -1989,7 +1978,9 @@
         <v>34</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -2004,8 +1995,12 @@
       <c r="D8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
@@ -2021,7 +2016,9 @@
         <v>34</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -2036,8 +2033,12 @@
       <c r="D10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
@@ -2053,7 +2054,9 @@
         <v>34</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
@@ -2068,8 +2071,12 @@
       <c r="D12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
@@ -2085,7 +2092,9 @@
         <v>34</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
@@ -2137,17 +2146,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1 B3:B1048576">
-    <cfRule type="expression" dxfId="37" priority="5">
+    <cfRule type="expression" dxfId="35" priority="5">
       <formula>AND(A1&lt;&gt;"",NOT(B1&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C1048576">
-    <cfRule type="expression" dxfId="36" priority="8">
+    <cfRule type="expression" dxfId="34" priority="8">
       <formula>AND(#REF!&lt;&gt;"",NOT(C16&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="35" priority="1">
+    <cfRule type="expression" dxfId="33" priority="1">
       <formula>AND(A2&lt;&gt;"",NOT(B2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2170,7 +2179,7 @@
   <dimension ref="A1:OI399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6427,27 +6436,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:O15">
-    <cfRule type="notContainsBlanks" dxfId="34" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="5">
       <formula>LEN(TRIM(C3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B15">
-    <cfRule type="notContainsBlanks" dxfId="33" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="31" priority="4">
       <formula>LEN(TRIM(B3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:O2">
-    <cfRule type="notContainsBlanks" dxfId="32" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="30" priority="3">
       <formula>LEN(TRIM(D2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="notContainsBlanks" dxfId="31" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="2">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="notContainsBlanks" dxfId="30" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="1">
       <formula>LEN(TRIM(C2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6463,8 +6472,8 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6528,12 +6537,8 @@
         <v>79</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -6546,12 +6551,8 @@
         <v>82</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -6564,12 +6565,8 @@
         <v>85</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -6582,12 +6579,8 @@
         <v>88</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
@@ -6600,12 +6593,8 @@
         <v>91</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -6695,22 +6684,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B12 B14:B1048576">
-    <cfRule type="expression" dxfId="29" priority="9">
+    <cfRule type="expression" dxfId="27" priority="9">
       <formula>AND(A3&lt;&gt;"",NOT(B3&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E1048576">
-    <cfRule type="expression" dxfId="28" priority="11">
+    <cfRule type="expression" dxfId="26" priority="11">
       <formula>AND(#REF!&lt;&gt;"",NOT(E3&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="27" priority="3">
+    <cfRule type="expression" dxfId="25" priority="3">
       <formula>AND(#REF!&lt;&gt;"",NOT(E2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>AND(A13&lt;&gt;"",NOT(B13&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6732,7 +6721,7 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -7226,87 +7215,87 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B6 B1 B3 B9:B11 B20:B1048576">
-    <cfRule type="expression" dxfId="26" priority="31">
+    <cfRule type="expression" dxfId="23" priority="31">
       <formula>AND(A1&lt;&gt;"",NOT(B1&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6 I20:I1048576 I9:I11">
-    <cfRule type="expression" dxfId="25" priority="36">
+    <cfRule type="expression" dxfId="22" priority="36">
       <formula>AND(#REF!&lt;&gt;"",NOT(I6&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="21" priority="25">
       <formula>AND(#REF!&lt;&gt;"",NOT(I5&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="23" priority="22">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>AND(A5&lt;&gt;"",NOT(B5&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B15">
-    <cfRule type="expression" dxfId="22" priority="21">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>AND(A14&lt;&gt;"",NOT(B14&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B13">
-    <cfRule type="expression" dxfId="21" priority="20">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>AND(A12&lt;&gt;"",NOT(B12&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="expression" dxfId="20" priority="19">
+    <cfRule type="expression" dxfId="17" priority="19">
       <formula>AND(#REF!&lt;&gt;"",NOT(I3&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="19" priority="17">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>AND(A2&lt;&gt;"",NOT(B2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="expression" dxfId="18" priority="16">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>AND(#REF!&lt;&gt;"",NOT(I2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="17" priority="13">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>AND(A4&lt;&gt;"",NOT(B4&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="16" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>AND(#REF!&lt;&gt;"",NOT(I4&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="15" priority="10">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>AND(A7&lt;&gt;"",NOT(B7&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="14" priority="11">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>AND(#REF!&lt;&gt;"",NOT(I8&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="13" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>AND(A8&lt;&gt;"",NOT(B8&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>AND(#REF!&lt;&gt;"",NOT(I18&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>AND(#REF!&lt;&gt;"",NOT(I19&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>AND(#REF!&lt;&gt;"",NOT(I7&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7508,37 +7497,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E8">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>AND(D3&lt;&gt;"",NOT(E3&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A4">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>AND(XFD2&lt;&gt;"",NOT(A2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A6">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>AND(XFD5&lt;&gt;"",NOT(A5&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A18">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND(XFD16&lt;&gt;"",NOT(A16&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND(XFD19&lt;&gt;"",NOT(A19&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A11">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>AND(XFD9&lt;&gt;"",NOT(A9&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:A13">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>AND(XFD12&lt;&gt;"",NOT(A12&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/t2dm-poltava/t2dm_poltava_framework.xlsx
+++ b/t2dm-poltava/t2dm_poltava_framework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/cascade-analyses/t2dm-poltava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112887B6-E14F-B640-A991-2EBFF70F96A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D64A13F-EC6D-F247-B1B5-7752797548A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1540" windowWidth="24380" windowHeight="12800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="1720" windowWidth="24380" windowHeight="12800" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1842,7 +1842,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E12" sqref="E12:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1920,7 +1920,7 @@
         <v>34</v>
       </c>
       <c r="E4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>21</v>
@@ -1939,7 +1939,9 @@
       <c r="D5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
       <c r="F5" s="5" t="s">
         <v>21</v>
       </c>
@@ -1958,7 +1960,7 @@
         <v>34</v>
       </c>
       <c r="E6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>21</v>
@@ -1977,7 +1979,9 @@
       <c r="D7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
       <c r="F7" s="5" t="s">
         <v>21</v>
       </c>
@@ -1996,7 +2000,7 @@
         <v>34</v>
       </c>
       <c r="E8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>21</v>
@@ -2015,7 +2019,9 @@
       <c r="D9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
       <c r="F9" s="5" t="s">
         <v>21</v>
       </c>
@@ -2034,7 +2040,7 @@
         <v>34</v>
       </c>
       <c r="E10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>21</v>
@@ -2053,7 +2059,9 @@
       <c r="D11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
       <c r="F11" s="5" t="s">
         <v>21</v>
       </c>
@@ -2072,7 +2080,7 @@
         <v>34</v>
       </c>
       <c r="E12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>21</v>
@@ -2091,7 +2099,9 @@
       <c r="D13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
       <c r="F13" s="5" t="s">
         <v>21</v>
       </c>
@@ -6472,8 +6482,8 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6721,8 +6731,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6843,9 +6853,6 @@
       </c>
       <c r="C5" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>

--- a/t2dm-poltava/t2dm_poltava_framework.xlsx
+++ b/t2dm-poltava/t2dm_poltava_framework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/cascade-analyses/t2dm-poltava/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D64A13F-EC6D-F247-B1B5-7752797548A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB486CD0-932F-6543-8036-848208F831F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1720" windowWidth="24380" windowHeight="12800" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="1720" windowWidth="24380" windowHeight="12800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Parameters" sheetId="6" r:id="rId6"/>
     <sheet name="Cascades" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -212,16 +212,6 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Romesh:
-</t>
-        </r>
         <r>
           <rPr>
             <sz val="11"/>
@@ -2188,8 +2178,8 @@
   </sheetPr>
   <dimension ref="A1:OI399"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6731,7 +6721,7 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
